--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,246 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AStar" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AStar" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>expanded_nodes</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>list_expanded_nodes</t>
-  </si>
-  <si>
-    <t>A*</t>
-  </si>
-  <si>
-    <t>CANON</t>
-  </si>
-  <si>
-    <t>AARON, CANON</t>
-  </si>
-  <si>
-    <t>CRUDE</t>
-  </si>
-  <si>
-    <t>AARON, BLADE, CHASE, CHOSE, CINDY, CLOSE, CLOUD, DENSE, FENCE, HENCE, PEACE, SHADE, VENUE, BEADS, CENTS, CLOCK, FUNDS, HEADS, HINDU, LEADS, LEASE, LEAVE, PLACE, QUOTE, SCALE, SCOPE, SENDS, SENSE, SINCE, SPACE, USAGE, WENDY, BEACH, BENCH, BLAKE, BLAME, BUNCH, CLAIM, CLASS, CLOTH, DEALS, DEALT, DEATH, EMACS, EXACT, FINDS, FLAME, GENES, GLOBE, IMAGE, KINDS, LINED, LUNCH, MENUS, MINDS, PHASE, PLATE, PUNCH, SCOUT, SHAKE, SHAME, SHAPE, SLAVE, SLOPE, SMOKE, SPOKE, STAGE, STATE, TEACH, THOSE, TUNES, WHALE, WHOLE, WHOSE, WINDS, ZDNET, BEAST, BEATS, BLACK, BLOCK, BUNNY, EMAIL, EXAMS, FLOYD, FUNKY, FUNNY, HEATH, HEAVY, JENNY, KENNY, LEAST, LINES, LINUX, LLOYD, MEALS, MINES, MINUS, PENIS, PENNY, SCOTT, SEATS, SHOCK, SHOES, STACK, STOCK, SUNNY, TEAMS, VSNET, WINES, YEAST, BLAST, BLOGS, FLAGS, FLASH, FLOWS, GHOST, GLASS, HINTS, ITALY, KINGS, LINKS, MIAMI, PHOTO, PLAYS, PLOTS, SHAFT, SHALL, SHOPS, SHOTS, SHOWS, SINGH, SLOTS, SMALL, SPOTS, STAFF, STAMP, STATS, STAYS, STOPS, THATS, VINYL, WHATS, WINGS</t>
-  </si>
-  <si>
-    <t>YOURS</t>
-  </si>
-  <si>
-    <t>AARON, YEARS, STARS, STORY, BEARS, FEARS, GLORY, IVORY, SCARY, SCORE, SHORE, SHORT, SPORT, STORE, STORM, SWORD, TEARS, DIARY, GUARD, HENRY, ICONS, LIONS, SHARE, SHARK, SHARP, SMART, SPARC, SPARE, START, TIONS, WHORE, BEANS, CHARM, CHART, CLARK, EBONY, EVANS, GENRE, HEARD, HEART, JEANS, MEANS, PEARL, PLANS, STONE, BLOND, CLONE, FLOAT, ISAAC, LEONE, PHONE, SPANK, STAND, THONG, BLANK, DIANE, FINAL, GIANT, MEANT, PLANE, PLANT, THANK</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="20">
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -541,153 +477,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,11 +677,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1032,121 +1031,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="255.777777777778" customWidth="1"/>
+    <col width="255.777777777778" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>expanded_nodes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>list_expanded_nodes</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.0035</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2953</v>
+      </c>
+      <c r="C2" t="n">
+        <v>258</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CRUDE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AARON, BLADE, CHASE, CHOSE, CINDY, CLOSE, CLOUD, DENSE, FENCE, HENCE, PEACE, SHADE, VENUE, BEADS, CENTS, CLOCK, FUNDS, HEADS, HINDU, LEADS, LEASE, LEAVE, PLACE, QUOTE, SCALE, SCOPE, SENDS, SENSE, SINCE, SPACE, USAGE, WENDY, BEACH, BENCH, BLAKE, BLAME, BUNCH, CLAIM, CLASS, CLOTH, DEALS, DEALT, DEATH, EMACS, EXACT, FINDS, FLAME, GENES, GLOBE, IMAGE, KINDS, LINED, LUNCH, MENUS, MINDS, PHASE, PLATE, PUNCH, SCOUT, SHAKE, SHAME, SHAPE, SLAVE, SLOPE, SMOKE, SPOKE, STAGE, STATE, TEACH, THOSE, TUNES, WHALE, WHOLE, WHOSE, WINDS, ZDNET, BEAST, BEATS, BLACK, BLOCK, BUNNY, EMAIL, EXAMS, FLOYD, FUNKY, FUNNY, HEATH, HEAVY, JENNY, KENNY, LEAST, LINES, LINUX, LLOYD, MEALS, MINES, MINUS, PENIS, PENNY, SCOTT, SEATS, SHOCK, SHOES, STACK, STOCK, SUNNY, TEAMS, VSNET, WINES, YEAST, BLAST, BLOGS, FLAGS, FLASH, FLOWS, GHOST, GLASS, HINTS, ITALY, KINGS, LINKS, MIAMI, PHOTO, PLAYS, PLOTS, SHAFT, SHALL, SHOPS, SHOTS, SHOWS, SINGH, SLOTS, SMALL, SPOTS, STAFF, STAMP, STATS, STAYS, STOPS, THATS, VINYL, WHATS, WINGS</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.0033</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>YOURS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AARON, YEARS, STARS, STORY, BEARS, FEARS, GLORY, IVORY, SCARY, SCORE, SHORE, SHORT, SPORT, STORE, STORM, SWORD, TEARS, DIARY, GUARD, HENRY, ICONS, LIONS, SHARE, SHARK, SHARP, SMART, SPARC, SPARE, START, TIONS, WHORE, BEANS, CHARM, CHART, CLARK, EBONY, EVANS, GENRE, HEARD, HEART, JEANS, MEANS, PEARL, PLANS, STONE, BLOND, CLONE, FLOAT, ISAAC, LEONE, PHONE, SPANK, STAND, THONG, BLANK, DIANE, FINAL, GIANT, MEANT, PLANE, PLANT, THANK</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.2953</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ROOTS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AARON, SHORT, SPORT, STARS, STORE, STORM, STORY, TIONS, ICONS, LIONS, SCORE, SHORE, START, STONE, SWORD, TEARS, BEARS, FEARS, FLOAT, GLORY, IVORY, SMART, THONG, WHORE, YEARS, BEANS, BLOND, CHART, CLONE, EBONY, EVANS, HEART, JEANS, LEONE, MEANS, PHONE, PLANS, SCARY, SHARE, SHARK, SHARP, SPARC, SPARE, STAND, CHARM, CLARK, DIARY, GENRE, GIANT, GUARD, HEARD, HENRY, ISAAC, MEANT, PEARL, PLANT, SPANK, THANK, BLANK, DIANE, FINAL, PLANE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HINDU</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AARON, DILDO, DIEGO, DISCO, VIDEO, WIDER, CISCO, FIBER, HELLO, JULIA, LIVER, LUCIA, MEDIA, MIXER, PIZZA, SIGMA, THEIR, TIGER, TIMER, VILLA, VISTA, BUYER, DELTA, ELDER, SCUBA, SHEER, SUPER, TULSA, UPPER, CYBER, FEVER, FEWER, FLYER, METER, MEYER, PETER, TYLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>252</v>
+      </c>
+      <c r="D6" t="n">
+        <v>143</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AARON, SENSE, SHOES, TUNES, GENES, SCOPE, SEATS, SENDS, SHAPE, SHOPS, SLOPE, SPACE, SPOKE, SPOTS, STOPS, SUNNY, DENSE, FUNDS, LEASE, LINES, MENUS, MINES, PEACE, PENIS, PHASE, PUNCH, QUOTE, SCALE, SCOUT, SHADE, SHAKE, SHAME, SHOTS, SHOWS, SINCE, SLAVE, SLOTS, SMOKE, STAGE, STAMP, STATE, STATS, STAYS, USAGE, VENUE, VSNET, WINES, BEADS, BEAST, BEATS, BUNCH, BUNNY, CENTS, CHASE, CHOSE, CLASS, CLOSE, DEALS, EMACS, EXAMS, FENCE, FUNKY, FUNNY, GLASS, HEADS, HENCE, LEADS, LEAST, LEAVE, LINED, LUNCH, MEALS, MINUS, PENNY, PLACE, PLATE, PLAYS, PLOTS, SCOTT, SHAFT, SHALL, SHOCK, SINGH, SMALL, STACK, STAFF, STOCK, TEAMS, THOSE, WHOSE, YEAST, ZDNET, BEACH, BENCH, BLADE, BLAKE, BLAME, BLAST, BLOGS, CLOUD, DEALT, DEATH, EMAIL, EXACT, FINDS, FLAGS, FLAME, FLASH, FLOWS, GHOST, GLOBE, HEATH, HEAVY, HINDU, HINTS, IMAGE, JENNY, KENNY, KINDS, KINGS, LINKS, LINUX, MINDS, PHOTO, TEACH, THATS, WENDY, WHALE, WHATS, WHOLE, WINDS, WINGS, BLACK, BLOCK, CINDY, CLAIM, CLOCK, CLOTH, FLOYD, ITALY, LLOYD, MIAMI, VINYL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BRING</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AARON, BINGO, BLAIR, CHAIR, CHOIR, KINDA, LINDA, TUNER, FLOUR, IDAHO, KENYA, PLAZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TEACH</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AARON, RESET, NEEDS, REBEL, REFER, NEWLY, NIGHT, OUGHT, REMIX, REPLY, RIGHT, OLIVE, OXIDE, RIDER, RIDES, RIDGE, RIVER, RULED, RULES, RISKS, RUGBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3344</v>
+      </c>
+      <c r="C9" t="n">
+        <v>295</v>
+      </c>
+      <c r="D9" t="n">
+        <v>143</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LIVER</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AARON, LINED, LINES, LEAVE, VINYL, EMAIL, LEASE, SLAVE, LINKS, LINUX, MINES, WINES, VENUE, LEADS, LEAST, SINCE, VSNET, BLADE, BLAKE, BLAME, CLAIM, CLOSE, DEALS, DEALT, FLAME, GENES, GLOBE, HEAVY, IMAGE, ITALY, LLOYD, MEALS, MIAMI, PENIS, PLACE, PLATE, SCALE, SLOPE, WHALE, WHOLE, DENSE, FENCE, HENCE, PEACE, SENSE, SHALL, SMALL, CINDY, FINDS, HINDU, HINTS, KINDS, KINGS, LUNCH, MINDS, MINUS, SHOES, SINGH, TUNES, WINDS, WINGS, ZDNET, BEACH, BEADS, BEAST, BEATS, BENCH, BLACK, BLAST, BLOCK, BLOGS, CENTS, CHASE, CHOSE, CLASS, CLOCK, CLOTH, CLOUD, DEATH, EMACS, EXACT, EXAMS, FLAGS, FLASH, FLOWS, FLOYD, GLASS, HEADS, HEATH, JENNY, KENNY, MENUS, PENNY, PHASE, PLAYS, PLOTS, QUOTE, SCOPE, SEATS, SENDS, SHADE, SHAKE, SHAME, SHAPE, SLOTS, SMOKE, SPACE, SPOKE, STAGE, STATE, TEACH, TEAMS, THOSE, USAGE, WENDY, WHOSE, YEAST, BUNCH, BUNNY, FUNDS, FUNKY, FUNNY, GHOST, PHOTO, PUNCH, SCOTT, SCOUT, SHAFT, SHOCK, SHOPS, SHOTS, SHOWS, SPOTS, STACK, STAFF, STAMP, STATS, STAYS, STOCK, STOPS, SUNNY, THATS, WHATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>143</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIVER</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AARON, LINED, LINES, LEAVE, VINYL, EMAIL, LEASE, SLAVE, LINKS, LINUX, MINES, WINES, VENUE, LEADS, LEAST, SINCE, VSNET, BLADE, BLAKE, BLAME, CLAIM, CLOSE, DEALS, DEALT, FLAME, GENES, GLOBE, HEAVY, IMAGE, ITALY, LLOYD, MEALS, MIAMI, PENIS, PLACE, PLATE, SCALE, SLOPE, WHALE, WHOLE, DENSE, FENCE, HENCE, PEACE, SENSE, SHALL, SMALL, CINDY, FINDS, HINDU, HINTS, KINDS, KINGS, LUNCH, MINDS, MINUS, SHOES, SINGH, TUNES, WINDS, WINGS, ZDNET, BEACH, BEADS, BEAST, BEATS, BENCH, BLACK, BLAST, BLOCK, BLOGS, CENTS, CHASE, CHOSE, CLASS, CLOCK, CLOTH, CLOUD, DEATH, EMACS, EXACT, EXAMS, FLAGS, FLASH, FLOWS, FLOYD, GLASS, HEADS, HEATH, JENNY, KENNY, MENUS, PENNY, PHASE, PLAYS, PLOTS, QUOTE, SCOPE, SEATS, SENDS, SHADE, SHAKE, SHAME, SHAPE, SLOTS, SMOKE, SPACE, SPOKE, STAGE, STATE, TEACH, TEAMS, THOSE, USAGE, WENDY, WHOSE, YEAST, BUNCH, BUNNY, FUNDS, FUNKY, FUNNY, GHOST, PHOTO, PUNCH, SCOTT, SCOUT, SHAFT, SHOCK, SHOPS, SHOTS, SHOWS, SPOTS, STACK, STAFF, STAMP, STATS, STAYS, STOCK, STOPS, SUNNY, THATS, WHATS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A*</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="C11" t="n">
         <v>258</v>
       </c>
-      <c r="D4">
+      <c r="D11" t="n">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.1416</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TRIPS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AARON, STOPS, SPOTS, STATS, HINTS, PENIS, PLOTS, SHOPS, THATS, SEATS, SHOTS, SLOTS, STAMP, STAYS, TEAMS, TUNES, SCOTT, STATE, BEATS, CENTS, FINDS, KINDS, KINGS, LINES, LINKS, MINDS, MINES, MINUS, PLAYS, SCOPE, SHAPE, SLOPE, THOSE, WHATS, WINDS, WINES, WINGS, BEAST, BLAST, CLASS, GHOST, GLASS, ITALY, LEAST, PHASE, PHOTO, PLATE, SCOUT, SENDS, SHAFT, SHOES, SHOWS, SINCE, SINGH, SPACE, SPOKE, STACK, STAFF, STAGE, STOCK, VSNET, YEAST, MIAMI, SENSE, BEADS, BLOGS, DEALS, EMACS, EXAMS, FLAGS, FLOWS, FUNDS, GENES, HEADS, LEADS, MEALS, MENUS, TEACH, CHASE, CHOSE, CINDY, CLAIM, CLOSE, CLOTH, DEALT, DEATH, DENSE, EMAIL, EXACT, FLASH, HEATH, HINDU, IMAGE, LEASE, LINED, LINUX, PEACE, PENNY, PLACE, PUNCH, QUOTE, SCALE, SHADE, SHAKE, SHALL, SHAME, SHOCK, SLAVE, SMALL, SMOKE, SUNNY, USAGE, VINYL, WHOSE, ZDNET, BEACH, BENCH, BLACK, BLADE, BLAKE, BLAME, BLOCK, BUNCH, BUNNY, CLOCK, CLOUD, FENCE, FLAME, FLOYD, FUNKY, FUNNY, GLOBE, HEAVY, HENCE, JENNY, KENNY, LEAVE, LLOYD, LUNCH, VENUE, WENDY, WHALE, WHOLE</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>